--- a/Output/Аксессуары.xlsx
+++ b/Output/Аксессуары.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Артикул</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>Аксессуары</t>
+  </si>
+  <si>
+    <t>41996454D</t>
+  </si>
+  <si>
+    <t>Гигиенический затвор</t>
+  </si>
+  <si>
+    <t>SVH 10</t>
   </si>
   <si>
     <t>41996491D</t>
@@ -478,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,13 +604,13 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -616,10 +625,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -643,13 +652,13 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -664,10 +673,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -691,13 +700,13 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -712,10 +721,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -782,6 +791,30 @@
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
     </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Output/Аксессуары.xlsx
+++ b/Output/Аксессуары.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Артикул</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Товарная Группа 5</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>41996489D</t>
   </si>
   <si>
@@ -110,6 +107,15 @@
   </si>
   <si>
     <t>SPD 10</t>
+  </si>
+  <si>
+    <t>41996570D</t>
+  </si>
+  <si>
+    <t>Планка с уплотнителем для пылесборника</t>
+  </si>
+  <si>
+    <t>RX-DL 1</t>
   </si>
   <si>
     <t>41996981D</t>
@@ -487,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +501,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,297 +529,305 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s"/>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s"/>
       <c r="H3" t="s"/>
       <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s"/>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s"/>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s"/>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s"/>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s"/>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s"/>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s"/>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s"/>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s"/>
       <c r="H12" t="s"/>
       <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s"/>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
